--- a/biology/Médecine/Hedda_Andersson/Hedda_Andersson.xlsx
+++ b/biology/Médecine/Hedda_Andersson/Hedda_Andersson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hedda Albertina Andersson, née le 24 avril 1861 à Malmö et morte le 7 septembre 1950, est une femme médecin suédoise.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hedda Albertina Andersson naît le 24 avril 1861 à Malmö[1].
-Commençant ses études en 1880 à l'université de Lund, elle est la première femme à fréquenter cet établissement[1]. Elle devient la deuxième femme médecin en Suède en 1892[1].
-Hedda Albertina Andersson meurt le 7 septembre 1950[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hedda Albertina Andersson naît le 24 avril 1861 à Malmö.
+Commençant ses études en 1880 à l'université de Lund, elle est la première femme à fréquenter cet établissement. Elle devient la deuxième femme médecin en Suède en 1892.
+Hedda Albertina Andersson meurt le 7 septembre 1950.
 </t>
         </is>
       </c>
